--- a/test-data/AMC/ATC-DDD WHO core and optional antimicrobials.xlsx
+++ b/test-data/AMC/ATC-DDD WHO core and optional antimicrobials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xosegi\Desktop\Jodata\Jodata\MAAP-Data-Analysis\MAAP-Data-Analysis\test-data\AMC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB30C6C-C481-452F-BEE2-75EA69BD4184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCA7DE5-558F-494A-A99B-61CD5FB7A1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{77D4C4DB-7E88-B445-B4EE-00BE341E7F15}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{77D4C4DB-7E88-B445-B4EE-00BE341E7F15}"/>
   </bookViews>
   <sheets>
     <sheet name="Product details - ATC-DDD-AWaRe" sheetId="1" r:id="rId1"/>
@@ -5217,8 +5217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A135C3D-945D-544E-9277-22F041C66F55}">
   <dimension ref="A1:H621"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="A387" workbookViewId="0">
+      <selection activeCell="J394" sqref="J394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -21269,7 +21269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1433CE8-27AF-5548-8F32-16CA251D2235}">
   <dimension ref="A1:E258"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
